--- a/type-of-data/type-of-data.xlsx
+++ b/type-of-data/type-of-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrocca\Desktop\cefriel-github\tandcatap\type-of-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210F8576-9A36-4FB6-8F9B-53B49CB824C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A73C2-1F87-42DE-885A-E08BBF99686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -144,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,7 +156,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -175,9 +174,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -215,9 +214,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -250,26 +249,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,26 +284,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -510,7 +475,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +492,7 @@
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -549,12 +514,6 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="str">
-        <f>_xlfn.CONCAT("https://knowledge.c-innovationhub.com/tangent/type-of-data/",SUBSTITUTE(LOWER(B8)," ","-"))</f>
-        <v>https://knowledge.c-innovationhub.com/tangent/type-of-data/static</v>
-      </c>
-    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>2</v>
@@ -584,7 +543,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">

--- a/type-of-data/type-of-data.xlsx
+++ b/type-of-data/type-of-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrocca\Desktop\cefriel-github\tandcatap\type-of-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scrocca\Desktop\cefriel-github\tandcatap\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{415A73C2-1F87-42DE-885A-E08BBF99686B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94E41AD-6DA7-438B-8FD8-EEBE84C52D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>dct:title</t>
   </si>
@@ -67,9 +67,6 @@
     <t>TANGENT Type of data</t>
   </si>
   <si>
-    <t>Type of data defined in TANGENT.</t>
-  </si>
-  <si>
     <t>Static</t>
   </si>
   <si>
@@ -95,13 +92,52 @@
   </si>
   <si>
     <t>Filtered, aggregated and stored static or real-time data.</t>
+  </si>
+  <si>
+    <t>dct:creator</t>
+  </si>
+  <si>
+    <t>Mario Scrocca (Cefriel)</t>
+  </si>
+  <si>
+    <t>dct:publisher</t>
+  </si>
+  <si>
+    <t>owl:versionInfo</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>owl:versionIRI</t>
+  </si>
+  <si>
+    <t>owl:priorVersion</t>
+  </si>
+  <si>
+    <t>dct:license</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t>http://purl.org/ontology/bibo/status</t>
+  </si>
+  <si>
+    <t>Published Controlled Vocabulary</t>
+  </si>
+  <si>
+    <t>Controlled vocabulary for the type of data defined in TANGENT.</t>
+  </si>
+  <si>
+    <t>TANGENT WP2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +149,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,10 +185,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -156,8 +201,11 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -464,7 +512,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -472,31 +520,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.42578125" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="35.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.42578125" customWidth="1"/>
+    <col min="1" max="1" width="89.44140625" customWidth="1"/>
+    <col min="2" max="2" width="36.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="45.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="35.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -505,69 +553,134 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="str">
+        <f>_xlfn.CONCAT(B1,"/",B6)</f>
+        <v>https://knowledge.c-innovationhub.com/tangent/type-of-data/1.0.0</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{C651D12B-31F3-4763-B67F-2C1E9B7C51C9}"/>
+    <hyperlink ref="B1" r:id="rId2" xr:uid="{CD4A2B60-7E80-485A-B446-006C1A458B1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -577,7 +690,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
